--- a/lfs_april_2016_metadata(dictionary).xlsx
+++ b/lfs_april_2016_metadata(dictionary).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cynicap\Documents\School\STINTSY\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659AF6C5-9AAF-4BBE-821E-8713F307DB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDFD93C-B7BA-4ADC-8FB3-22D76B8B795B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="1010">
   <si>
     <t>PUFREG_VS1</t>
   </si>
@@ -3015,6 +3015,42 @@
   </si>
   <si>
     <t>PUFNEWEMPSTAT</t>
+  </si>
+  <si>
+    <t>REL</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CORR</t>
+  </si>
+  <si>
+    <t>HIGHEST</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>PKB</t>
+  </si>
+  <si>
+    <t>PNHWRS</t>
+  </si>
+  <si>
+    <t>PHOURS</t>
+  </si>
+  <si>
+    <t>PCLASS</t>
+  </si>
+  <si>
+    <t>THOURS</t>
+  </si>
+  <si>
+    <t>QKB</t>
   </si>
 </sst>
 </file>
@@ -3157,7 +3193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3343,6 +3379,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3504,11 +3600,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3864,18 +3973,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA194C70-7A58-425D-9E3E-461AE0A5F7F8}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>936</v>
       </c>
@@ -3883,7 +3994,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>938</v>
       </c>
@@ -3891,7 +4002,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E3" s="3" t="s">
         <v>940</v>
       </c>
@@ -3899,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
         <v>941</v>
       </c>
@@ -3907,7 +4018,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E5" s="3" t="s">
         <v>943</v>
       </c>
@@ -3915,7 +4026,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E6" s="3" t="s">
         <v>945</v>
       </c>
@@ -3923,7 +4034,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>947</v>
       </c>
@@ -3931,7 +4042,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>949</v>
       </c>
@@ -3939,47 +4050,127 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>950</v>
       </c>
       <c r="F9" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E10" s="3" t="s">
         <v>952</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>998</v>
+      </c>
+      <c r="M10" t="s">
+        <v>999</v>
+      </c>
+      <c r="V10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E11" s="3" t="s">
         <v>953</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>954</v>
       </c>
       <c r="F12" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M12" t="s">
+        <v>999</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E13" s="3" t="s">
         <v>956</v>
       </c>
       <c r="F13" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>0.192</v>
+      </c>
+      <c r="N13">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="O13">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.37</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="S13">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>958</v>
       </c>
@@ -3987,7 +4178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>959</v>
       </c>
@@ -3995,7 +4186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>960</v>
       </c>
@@ -4003,7 +4194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>961</v>
       </c>
@@ -4011,247 +4202,427 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>962</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>963</v>
       </c>
       <c r="F19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P19" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>964</v>
       </c>
       <c r="F20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P20" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>965</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>966</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E23" s="3" t="s">
         <v>967</v>
       </c>
       <c r="F23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>968</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>969</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P25" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E26" s="3" t="s">
         <v>970</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
+      <c r="P26" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E27" s="7" t="s">
         <v>971</v>
       </c>
       <c r="F27" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
+      <c r="P27" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E28" s="7" t="s">
         <v>972</v>
       </c>
       <c r="F28" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P28" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>973</v>
       </c>
       <c r="F29" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E30" t="s">
+      <c r="P29" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E30" s="6" t="s">
         <v>974</v>
       </c>
       <c r="F30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
+      <c r="P30" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E31" s="6" t="s">
         <v>975</v>
       </c>
       <c r="F31" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E32" t="s">
+      <c r="P31" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E32" s="6" t="s">
         <v>976</v>
       </c>
       <c r="F32" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E33" t="s">
+      <c r="P32" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E33" s="6" t="s">
         <v>977</v>
       </c>
       <c r="F33" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P33" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>978</v>
       </c>
       <c r="F34" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E35" t="s">
+      <c r="P34" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E35" s="7" t="s">
         <v>979</v>
       </c>
       <c r="F35" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P35" t="s">
+        <v>978</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E36" s="3" t="s">
         <v>980</v>
       </c>
       <c r="F36" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E37" t="s">
+      <c r="P36" t="s">
+        <v>979</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E37" s="7" t="s">
         <v>981</v>
       </c>
       <c r="F37" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E38" s="3" t="s">
         <v>982</v>
       </c>
       <c r="F38" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E39" t="s">
+      <c r="P38" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E39" s="7" t="s">
         <v>983</v>
       </c>
       <c r="F39" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P39" t="s">
+        <v>984</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>984</v>
       </c>
       <c r="F40" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>985</v>
       </c>
       <c r="F41" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P41" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E42" s="3" t="s">
         <v>986</v>
       </c>
       <c r="F42" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P42" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E43" s="3" t="s">
         <v>987</v>
       </c>
       <c r="F43" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P43" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E44" s="3" t="s">
         <v>988</v>
       </c>
       <c r="F44" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P44" t="s">
+        <v>994</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E45" s="3" t="s">
         <v>989</v>
       </c>
       <c r="F45" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P45" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="46" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E46" s="3" t="s">
         <v>990</v>
       </c>
       <c r="F46" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P46" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="47" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>991</v>
       </c>
       <c r="F47" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="P47" t="s">
+        <v>997</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="48" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>992</v>
       </c>
@@ -4260,7 +4631,7 @@
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E49" t="s">
+      <c r="E49" s="7" t="s">
         <v>993</v>
       </c>
       <c r="F49" t="s">
@@ -4268,7 +4639,7 @@
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E50" t="s">
+      <c r="E50" s="6" t="s">
         <v>994</v>
       </c>
       <c r="F50" t="s">
@@ -4276,7 +4647,7 @@
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E51" t="s">
+      <c r="E51" s="7" t="s">
         <v>995</v>
       </c>
       <c r="F51" t="s">
@@ -4284,7 +4655,7 @@
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E52" t="s">
+      <c r="E52" s="7" t="s">
         <v>996</v>
       </c>
       <c r="F52" t="s">
@@ -4300,6 +4671,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M9:U9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4308,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C191" sqref="C123:C191"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5200,7 +5574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -5208,7 +5582,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>70</v>
       </c>
@@ -5216,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>71</v>
       </c>
@@ -5224,7 +5598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>72</v>
       </c>
@@ -5232,7 +5606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>73</v>
       </c>
@@ -5240,7 +5614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>74</v>
       </c>
@@ -5248,7 +5622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>75</v>
       </c>
@@ -5256,7 +5630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>76</v>
       </c>
@@ -5264,555 +5638,582 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C123" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C123" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
+      <c r="E123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C124" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C125" t="s">
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C125" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="8">
         <v>210</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C126" t="s">
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C126" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="8">
         <v>220</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C127" t="s">
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C127" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="8">
         <v>230</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C128" t="s">
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C128" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="8">
         <v>240</v>
       </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C129" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="8">
         <v>250</v>
       </c>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C130" t="s">
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C130" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="8">
         <v>260</v>
       </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C131" t="s">
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C131" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="8">
         <v>280</v>
       </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C132" t="s">
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C132" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="9">
         <v>310</v>
       </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C133" t="s">
+      <c r="E132" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C133" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="9">
         <v>320</v>
       </c>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C134" t="s">
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C134" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="9">
         <v>330</v>
       </c>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C135" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="9">
         <v>340</v>
       </c>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C136" t="s">
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C136" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="9">
         <v>350</v>
       </c>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C137" t="s">
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C137" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="10">
         <v>410</v>
       </c>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C138" t="s">
+      <c r="E137" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C138" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="10">
         <v>420</v>
       </c>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C139" t="s">
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C139" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="10">
         <v>810</v>
       </c>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C140" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="10">
         <v>820</v>
       </c>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C141" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="10">
         <v>830</v>
       </c>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C142" t="s">
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C142" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="10">
         <v>840</v>
       </c>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C143" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="10">
         <v>900</v>
       </c>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C144" t="s">
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C144" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="14">
         <v>501</v>
       </c>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C145" t="s">
+      <c r="C145" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="14">
         <v>508</v>
       </c>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
+      <c r="C146" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="14">
         <v>509</v>
       </c>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C147" t="s">
+      <c r="C147" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="14">
         <v>514</v>
       </c>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C148" t="s">
+      <c r="C148" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="13">
         <v>521</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C149" t="s">
+      <c r="C149" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="13">
         <v>522</v>
       </c>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
+      <c r="C150" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="13">
         <v>531</v>
       </c>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C151" t="s">
+      <c r="C151" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="13">
         <v>532</v>
       </c>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C152" t="s">
+      <c r="C152" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="12">
         <v>534</v>
       </c>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C153" t="s">
+      <c r="C153" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="11">
         <v>542</v>
       </c>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C154" t="s">
+      <c r="C154" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="11">
         <v>544</v>
       </c>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
+      <c r="C155" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="11">
         <v>548</v>
       </c>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
+      <c r="C156" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="11">
         <v>552</v>
       </c>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C157" t="s">
+      <c r="C157" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="11">
         <v>554</v>
       </c>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C158" t="s">
+      <c r="C158" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="11">
         <v>558</v>
       </c>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C159" t="s">
+      <c r="C159" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="11">
         <v>562</v>
       </c>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C160" t="s">
+      <c r="C160" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="11">
         <v>564</v>
       </c>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C161" t="s">
+      <c r="C161" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="11">
         <v>572</v>
       </c>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C162" t="s">
+      <c r="C162" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="14">
         <v>576</v>
       </c>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C163" t="s">
+      <c r="C163" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="14">
         <v>581</v>
       </c>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C164" t="s">
+      <c r="C164" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="14">
         <v>584</v>
       </c>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C165" t="s">
+      <c r="C165" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="14">
         <v>585</v>
       </c>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C166" t="s">
+      <c r="C166" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="14">
         <v>586</v>
       </c>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C167" t="s">
+      <c r="C167" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="14">
         <v>589</v>
       </c>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
+      <c r="C168" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="14">
         <v>601</v>
       </c>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
+      <c r="C169" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="14">
         <v>614</v>
       </c>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C170" t="s">
+      <c r="C170" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="13">
         <v>621</v>
       </c>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C171" t="s">
+      <c r="C171" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="13">
         <v>622</v>
       </c>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C172" t="s">
+      <c r="C172" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="13">
         <v>631</v>
       </c>
     </row>
     <row r="173" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C173" t="s">
+      <c r="C173" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="13">
         <v>632</v>
       </c>
     </row>
     <row r="174" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C174" t="s">
+      <c r="C174" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="12">
         <v>634</v>
       </c>
     </row>
     <row r="175" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C175" t="s">
+      <c r="C175" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="12">
         <v>638</v>
       </c>
     </row>
     <row r="176" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C176" t="s">
+      <c r="C176" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="11">
         <v>642</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C177" t="s">
+      <c r="C177" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="11">
         <v>644</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C178" t="s">
+      <c r="C178" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="11">
         <v>646</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C179" t="s">
+      <c r="C179" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="11">
         <v>648</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C180" t="s">
+      <c r="C180" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="11">
         <v>652</v>
       </c>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C181" t="s">
+      <c r="C181" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="11">
         <v>654</v>
       </c>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C182" t="s">
+      <c r="C182" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="11">
         <v>658</v>
       </c>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C183" t="s">
+      <c r="C183" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="11">
         <v>662</v>
       </c>
     </row>
     <row r="184" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C184" t="s">
+      <c r="C184" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="11">
         <v>664</v>
       </c>
     </row>
     <row r="185" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C185" t="s">
+      <c r="C185" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="11">
         <v>672</v>
       </c>
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C186" t="s">
+      <c r="C186" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="14">
         <v>676</v>
       </c>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C187" t="s">
+      <c r="C187" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="14">
         <v>681</v>
       </c>
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C188" t="s">
+      <c r="C188" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="14">
         <v>684</v>
       </c>
     </row>
     <row r="189" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C189" t="s">
+      <c r="C189" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="14">
         <v>685</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C190" t="s">
+      <c r="C190" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="14">
         <v>686</v>
       </c>
     </row>
     <row r="191" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C191" t="s">
+      <c r="C191" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="14">
         <v>689</v>
       </c>
     </row>
@@ -6494,13 +6895,13 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C279" t="s">
+      <c r="C279" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="5">
         <v>1</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="5">
         <v>3</v>
       </c>
     </row>
@@ -6524,13 +6925,13 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C282" t="s">
+      <c r="C282" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="5">
         <v>5</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="5">
         <v>43</v>
       </c>
     </row>
@@ -6587,13 +6988,13 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C288" t="s">
+      <c r="C288" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="5">
         <v>45</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="5">
         <v>99</v>
       </c>
     </row>
@@ -8734,103 +9135,103 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C562" t="s">
-        <v>470</v>
+        <v>925</v>
       </c>
       <c r="D562">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C563" t="s">
-        <v>471</v>
+        <v>923</v>
       </c>
       <c r="D563">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C564" t="s">
-        <v>472</v>
+        <v>679</v>
       </c>
       <c r="D564">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C565" t="s">
-        <v>473</v>
+        <v>924</v>
       </c>
       <c r="D565">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C566" t="s">
-        <v>474</v>
+        <v>913</v>
       </c>
       <c r="D566">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C567" t="s">
-        <v>475</v>
+        <v>780</v>
       </c>
       <c r="D567">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C568" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="D568">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C569" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
       <c r="D569">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C570" t="s">
-        <v>478</v>
+        <v>695</v>
       </c>
       <c r="D570">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C571" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D571">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C572" t="s">
-        <v>480</v>
+        <v>683</v>
       </c>
       <c r="D572">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C573" t="s">
-        <v>481</v>
+        <v>825</v>
       </c>
       <c r="D573">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C574" t="s">
-        <v>482</v>
+        <v>830</v>
       </c>
       <c r="D574">
         <v>11</v>
@@ -8838,111 +9239,111 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C575" t="s">
-        <v>483</v>
+        <v>595</v>
       </c>
       <c r="D575">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C576" t="s">
-        <v>484</v>
+        <v>738</v>
       </c>
       <c r="D576">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="577" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C577" t="s">
-        <v>485</v>
+        <v>896</v>
       </c>
       <c r="D577">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="578" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C578" t="s">
-        <v>486</v>
+        <v>890</v>
       </c>
       <c r="D578">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="579" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C579" t="s">
-        <v>487</v>
+        <v>911</v>
       </c>
       <c r="D579">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="580" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C580" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D580">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="581" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C581" t="s">
-        <v>489</v>
+        <v>743</v>
       </c>
       <c r="D581">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="582" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C582" t="s">
-        <v>490</v>
+        <v>767</v>
       </c>
       <c r="D582">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="583" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C583" t="s">
-        <v>491</v>
+        <v>915</v>
       </c>
       <c r="D583">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="584" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C584" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="D584">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="585" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C585" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D585">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="586" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C586" t="s">
-        <v>494</v>
+        <v>784</v>
       </c>
       <c r="D586">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="587" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C587" t="s">
-        <v>495</v>
+        <v>673</v>
       </c>
       <c r="D587">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="588" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C588" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="D588">
         <v>11</v>
@@ -8950,39 +9351,39 @@
     </row>
     <row r="589" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C589" t="s">
-        <v>497</v>
+        <v>662</v>
       </c>
       <c r="D589">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="590" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C590" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="D590">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="591" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C591" t="s">
-        <v>499</v>
+        <v>701</v>
       </c>
       <c r="D591">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="592" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C592" t="s">
-        <v>500</v>
+        <v>879</v>
       </c>
       <c r="D592">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="593" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C593" t="s">
-        <v>501</v>
+        <v>876</v>
       </c>
       <c r="D593">
         <v>11</v>
@@ -8990,215 +9391,215 @@
     </row>
     <row r="594" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C594" t="s">
-        <v>502</v>
+        <v>621</v>
       </c>
       <c r="D594">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="595" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C595" t="s">
-        <v>503</v>
+        <v>800</v>
       </c>
       <c r="D595">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="596" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C596" t="s">
-        <v>504</v>
+        <v>850</v>
       </c>
       <c r="D596">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="597" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C597" t="s">
-        <v>505</v>
+        <v>902</v>
       </c>
       <c r="D597">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="598" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C598" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D598">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="599" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C599" t="s">
-        <v>507</v>
+        <v>813</v>
       </c>
       <c r="D599">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="600" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C600" t="s">
-        <v>508</v>
+        <v>748</v>
       </c>
       <c r="D600">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="601" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C601" t="s">
-        <v>509</v>
+        <v>638</v>
       </c>
       <c r="D601">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="602" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C602" t="s">
-        <v>510</v>
+        <v>725</v>
       </c>
       <c r="D602">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="603" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C603" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="D603">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="604" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C604" t="s">
-        <v>512</v>
+        <v>708</v>
       </c>
       <c r="D604">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="605" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C605" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D605">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="606" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C606" t="s">
-        <v>514</v>
+        <v>831</v>
       </c>
       <c r="D606">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="607" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C607" t="s">
-        <v>515</v>
+        <v>684</v>
       </c>
       <c r="D607">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="608" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C608" t="s">
-        <v>516</v>
+        <v>785</v>
       </c>
       <c r="D608">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="609" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C609" t="s">
-        <v>517</v>
+        <v>903</v>
       </c>
       <c r="D609">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="610" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C610" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="D610">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="611" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C611" t="s">
-        <v>519</v>
+        <v>891</v>
       </c>
       <c r="D611">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="612" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C612" t="s">
-        <v>520</v>
+        <v>768</v>
       </c>
       <c r="D612">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="613" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C613" t="s">
-        <v>521</v>
+        <v>749</v>
       </c>
       <c r="D613">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="614" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C614" t="s">
-        <v>522</v>
+        <v>639</v>
       </c>
       <c r="D614">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="615" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C615" t="s">
-        <v>523</v>
+        <v>877</v>
       </c>
       <c r="D615">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="616" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C616" t="s">
-        <v>524</v>
+        <v>826</v>
       </c>
       <c r="D616">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="617" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C617" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="D617">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="618" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C618" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
       <c r="D618">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="619" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C619" t="s">
-        <v>527</v>
+        <v>674</v>
       </c>
       <c r="D619">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="620" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C620" t="s">
-        <v>528</v>
+        <v>575</v>
       </c>
       <c r="D620">
         <v>12</v>
@@ -9206,223 +9607,223 @@
     </row>
     <row r="621" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C621" t="s">
-        <v>529</v>
+        <v>912</v>
       </c>
       <c r="D621">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="622" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C622" t="s">
-        <v>530</v>
+        <v>897</v>
       </c>
       <c r="D622">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="623" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C623" t="s">
-        <v>531</v>
+        <v>702</v>
       </c>
       <c r="D623">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="624" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C624" t="s">
-        <v>532</v>
+        <v>622</v>
       </c>
       <c r="D624">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="625" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C625" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="D625">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="626" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C626" t="s">
-        <v>534</v>
+        <v>851</v>
       </c>
       <c r="D626">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="627" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C627" t="s">
-        <v>535</v>
+        <v>814</v>
       </c>
       <c r="D627">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="628" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C628" t="s">
-        <v>536</v>
+        <v>744</v>
       </c>
       <c r="D628">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="629" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C629" t="s">
-        <v>537</v>
+        <v>880</v>
       </c>
       <c r="D629">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="630" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C630" t="s">
-        <v>538</v>
+        <v>916</v>
       </c>
       <c r="D630">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="631" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C631" t="s">
-        <v>539</v>
+        <v>497</v>
       </c>
       <c r="D631">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="632" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C632" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="D632">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="633" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C633" t="s">
-        <v>541</v>
+        <v>663</v>
       </c>
       <c r="D633">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="634" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C634" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="D634">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="635" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C635" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="D635">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="636" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C636" t="s">
-        <v>544</v>
+        <v>696</v>
       </c>
       <c r="D636">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="637" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C637" t="s">
-        <v>545</v>
+        <v>726</v>
       </c>
       <c r="D637">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="638" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C638" t="s">
-        <v>546</v>
+        <v>739</v>
       </c>
       <c r="D638">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="639" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C639" t="s">
-        <v>547</v>
+        <v>709</v>
       </c>
       <c r="D639">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="640" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C640" t="s">
-        <v>548</v>
+        <v>801</v>
       </c>
       <c r="D640">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="641" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C641" t="s">
-        <v>549</v>
+        <v>640</v>
       </c>
       <c r="D641">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="642" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C642" t="s">
-        <v>550</v>
+        <v>904</v>
       </c>
       <c r="D642">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="643" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C643" t="s">
-        <v>551</v>
+        <v>769</v>
       </c>
       <c r="D643">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="644" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C644" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="D644">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="645" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C645" t="s">
-        <v>553</v>
+        <v>703</v>
       </c>
       <c r="D645">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="646" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C646" t="s">
-        <v>554</v>
+        <v>675</v>
       </c>
       <c r="D646">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="647" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C647" t="s">
-        <v>555</v>
+        <v>832</v>
       </c>
       <c r="D647">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="648" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C648" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="D648">
         <v>13</v>
@@ -9430,87 +9831,87 @@
     </row>
     <row r="649" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C649" t="s">
-        <v>557</v>
+        <v>827</v>
       </c>
       <c r="D649">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="650" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C650" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D650">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="651" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C651" t="s">
-        <v>559</v>
+        <v>815</v>
       </c>
       <c r="D651">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="652" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C652" t="s">
-        <v>560</v>
+        <v>898</v>
       </c>
       <c r="D652">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="653" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C653" t="s">
-        <v>561</v>
+        <v>685</v>
       </c>
       <c r="D653">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="654" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C654" t="s">
-        <v>562</v>
+        <v>697</v>
       </c>
       <c r="D654">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="655" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C655" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="D655">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="656" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C656" t="s">
-        <v>564</v>
+        <v>477</v>
       </c>
       <c r="D656">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="657" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C657" t="s">
-        <v>565</v>
+        <v>745</v>
       </c>
       <c r="D657">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="658" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C658" t="s">
-        <v>566</v>
+        <v>664</v>
       </c>
       <c r="D658">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="659" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C659" t="s">
-        <v>567</v>
+        <v>802</v>
       </c>
       <c r="D659">
         <v>13</v>
@@ -9518,250 +9919,250 @@
     </row>
     <row r="660" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C660" t="s">
-        <v>568</v>
+        <v>786</v>
       </c>
       <c r="D660">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="661" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C661" t="s">
-        <v>569</v>
+        <v>917</v>
       </c>
       <c r="D661">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="662" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C662" t="s">
-        <v>570</v>
+        <v>472</v>
       </c>
       <c r="D662">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="663" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C663" t="s">
-        <v>571</v>
+        <v>710</v>
       </c>
       <c r="D663">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="664" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C664" t="s">
-        <v>572</v>
+        <v>750</v>
       </c>
       <c r="D664">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="665" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C665" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D665">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="666" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C666" t="s">
-        <v>574</v>
+        <v>852</v>
       </c>
       <c r="D666">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="667" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C667" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D667">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="668" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C668" t="s">
-        <v>576</v>
+        <v>853</v>
       </c>
       <c r="D668">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="669" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C669" t="s">
-        <v>577</v>
+        <v>787</v>
       </c>
       <c r="D669">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="670" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C670" t="s">
-        <v>578</v>
+        <v>686</v>
       </c>
       <c r="D670">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="671" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C671" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="D671">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="672" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C672" t="s">
-        <v>580</v>
+        <v>833</v>
       </c>
       <c r="D672">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C673" t="s">
-        <v>581</v>
+        <v>899</v>
       </c>
       <c r="D673">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C674" t="s">
-        <v>582</v>
+        <v>504</v>
       </c>
       <c r="D674">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="675" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C675" t="s">
-        <v>583</v>
+        <v>624</v>
       </c>
       <c r="D675">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="676" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C676" t="s">
-        <v>584</v>
+        <v>770</v>
       </c>
       <c r="D676">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="677" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C677" t="s">
-        <v>585</v>
+        <v>816</v>
       </c>
       <c r="D677">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="678" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C678" t="s">
-        <v>586</v>
+        <v>704</v>
       </c>
       <c r="D678">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="679" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C679" t="s">
-        <v>587</v>
+        <v>746</v>
       </c>
       <c r="D679">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="680" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C680" t="s">
-        <v>588</v>
+        <v>473</v>
       </c>
       <c r="D680">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="681" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C681" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="D681">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="682" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C682" t="s">
-        <v>590</v>
+        <v>803</v>
       </c>
       <c r="D682">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="683" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C683" t="s">
-        <v>591</v>
+        <v>751</v>
       </c>
       <c r="D683">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="684" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C684" t="s">
-        <v>592</v>
+        <v>676</v>
       </c>
       <c r="D684">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="685" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C685" t="s">
-        <v>593</v>
+        <v>788</v>
       </c>
       <c r="D685">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="686" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C686" t="s">
-        <v>594</v>
+        <v>752</v>
       </c>
       <c r="D686">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="687" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C687" t="s">
-        <v>595</v>
+        <v>705</v>
       </c>
       <c r="D687">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="688" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C688" t="s">
-        <v>596</v>
+        <v>834</v>
       </c>
       <c r="D688">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="689" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C689" t="s">
-        <v>597</v>
+        <v>900</v>
       </c>
       <c r="D689">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="690" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C690" t="s">
-        <v>598</v>
+        <v>817</v>
       </c>
       <c r="D690">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="691" spans="3:4" x14ac:dyDescent="0.3">
@@ -9774,351 +10175,351 @@
     </row>
     <row r="692" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C692" t="s">
-        <v>600</v>
+        <v>804</v>
       </c>
       <c r="D692">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="693" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C693" t="s">
-        <v>601</v>
+        <v>642</v>
       </c>
       <c r="D693">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="694" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C694" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D694">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="695" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C695" t="s">
-        <v>603</v>
+        <v>901</v>
       </c>
       <c r="D695">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="696" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C696" t="s">
-        <v>604</v>
+        <v>753</v>
       </c>
       <c r="D696">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="697" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C697" t="s">
-        <v>605</v>
+        <v>706</v>
       </c>
       <c r="D697">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="698" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C698" t="s">
-        <v>606</v>
+        <v>818</v>
       </c>
       <c r="D698">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="699" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C699" t="s">
-        <v>607</v>
+        <v>835</v>
       </c>
       <c r="D699">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="700" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C700" t="s">
-        <v>608</v>
+        <v>819</v>
       </c>
       <c r="D700">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="701" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C701" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D701">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="702" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C702" t="s">
-        <v>610</v>
+        <v>754</v>
       </c>
       <c r="D702">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="703" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C703" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D703">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="704" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C704" t="s">
-        <v>612</v>
+        <v>755</v>
       </c>
       <c r="D704">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="705" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C705" t="s">
-        <v>613</v>
+        <v>820</v>
       </c>
       <c r="D705">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="706" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C706" t="s">
-        <v>614</v>
+        <v>878</v>
       </c>
       <c r="D706">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="707" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C707" t="s">
-        <v>615</v>
+        <v>789</v>
       </c>
       <c r="D707">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="708" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C708" t="s">
-        <v>616</v>
+        <v>478</v>
       </c>
       <c r="D708">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="709" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C709" t="s">
-        <v>617</v>
+        <v>707</v>
       </c>
       <c r="D709">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="710" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C710" t="s">
-        <v>618</v>
+        <v>821</v>
       </c>
       <c r="D710">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="711" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C711" t="s">
-        <v>619</v>
+        <v>576</v>
       </c>
       <c r="D711">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="712" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C712" t="s">
-        <v>620</v>
+        <v>756</v>
       </c>
       <c r="D712">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="713" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C713" t="s">
-        <v>621</v>
+        <v>505</v>
       </c>
       <c r="D713">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="714" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C714" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="D714">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="715" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C715" t="s">
-        <v>623</v>
+        <v>747</v>
       </c>
       <c r="D715">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="716" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C716" t="s">
-        <v>624</v>
+        <v>569</v>
       </c>
       <c r="D716">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="717" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C717" t="s">
-        <v>625</v>
+        <v>711</v>
       </c>
       <c r="D717">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="718" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C718" t="s">
-        <v>626</v>
+        <v>474</v>
       </c>
       <c r="D718">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="719" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C719" t="s">
-        <v>627</v>
+        <v>498</v>
       </c>
       <c r="D719">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="720" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C720" t="s">
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="D720">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="721" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C721" t="s">
-        <v>629</v>
+        <v>914</v>
       </c>
       <c r="D721">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="722" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C722" t="s">
-        <v>630</v>
+        <v>781</v>
       </c>
       <c r="D722">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="723" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C723" t="s">
-        <v>631</v>
+        <v>543</v>
       </c>
       <c r="D723">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="724" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C724" t="s">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="D724">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="725" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C725" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
       <c r="D725">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="726" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C726" t="s">
-        <v>634</v>
+        <v>805</v>
       </c>
       <c r="D726">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="727" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C727" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="D727">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="728" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C728" t="s">
-        <v>636</v>
+        <v>570</v>
       </c>
       <c r="D728">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="729" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C729" t="s">
-        <v>637</v>
+        <v>828</v>
       </c>
       <c r="D729">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="730" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C730" t="s">
-        <v>638</v>
+        <v>892</v>
       </c>
       <c r="D730">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="731" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C731" t="s">
-        <v>639</v>
+        <v>905</v>
       </c>
       <c r="D731">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="732" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C732" t="s">
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="D732">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="733" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C733" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D733">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="734" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C734" t="s">
-        <v>642</v>
+        <v>757</v>
       </c>
       <c r="D734">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="735" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C735" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="D735">
         <v>21</v>
@@ -10126,183 +10527,183 @@
     </row>
     <row r="736" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C736" t="s">
-        <v>644</v>
+        <v>484</v>
       </c>
       <c r="D736">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="737" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C737" t="s">
-        <v>645</v>
+        <v>506</v>
       </c>
       <c r="D737">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="738" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C738" t="s">
-        <v>646</v>
+        <v>918</v>
       </c>
       <c r="D738">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="739" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C739" t="s">
-        <v>647</v>
+        <v>854</v>
       </c>
       <c r="D739">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="740" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C740" t="s">
-        <v>648</v>
+        <v>771</v>
       </c>
       <c r="D740">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="741" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C741" t="s">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D741">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="742" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C742" t="s">
-        <v>650</v>
+        <v>881</v>
       </c>
       <c r="D742">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="743" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C743" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="D743">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="744" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C744" t="s">
-        <v>652</v>
+        <v>529</v>
       </c>
       <c r="D744">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="745" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C745" t="s">
-        <v>653</v>
+        <v>822</v>
       </c>
       <c r="D745">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="746" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C746" t="s">
-        <v>654</v>
+        <v>790</v>
       </c>
       <c r="D746">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="747" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C747" t="s">
-        <v>655</v>
+        <v>479</v>
       </c>
       <c r="D747">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="748" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C748" t="s">
-        <v>656</v>
+        <v>727</v>
       </c>
       <c r="D748">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="749" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C749" t="s">
-        <v>657</v>
+        <v>698</v>
       </c>
       <c r="D749">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="750" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C750" t="s">
-        <v>658</v>
+        <v>687</v>
       </c>
       <c r="D750">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="751" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C751" t="s">
-        <v>659</v>
+        <v>836</v>
       </c>
       <c r="D751">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="752" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C752" t="s">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="D752">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="753" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C753" t="s">
-        <v>661</v>
+        <v>837</v>
       </c>
       <c r="D753">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="754" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C754" t="s">
-        <v>662</v>
+        <v>882</v>
       </c>
       <c r="D754">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="755" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C755" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="D755">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="756" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C756" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="D756">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="757" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C757" t="s">
-        <v>665</v>
+        <v>758</v>
       </c>
       <c r="D757">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="758" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C758" t="s">
-        <v>666</v>
+        <v>791</v>
       </c>
       <c r="D758">
         <v>22</v>
@@ -10310,95 +10711,95 @@
     </row>
     <row r="759" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C759" t="s">
-        <v>667</v>
+        <v>741</v>
       </c>
       <c r="D759">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="760" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C760" t="s">
-        <v>668</v>
+        <v>829</v>
       </c>
       <c r="D760">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="761" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C761" t="s">
-        <v>669</v>
+        <v>578</v>
       </c>
       <c r="D761">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="762" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C762" t="s">
-        <v>670</v>
+        <v>605</v>
       </c>
       <c r="D762">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="763" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C763" t="s">
-        <v>671</v>
+        <v>855</v>
       </c>
       <c r="D763">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="764" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C764" t="s">
-        <v>672</v>
+        <v>626</v>
       </c>
       <c r="D764">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="765" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C765" t="s">
-        <v>673</v>
+        <v>530</v>
       </c>
       <c r="D765">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="766" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C766" t="s">
-        <v>674</v>
+        <v>485</v>
       </c>
       <c r="D766">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="767" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C767" t="s">
-        <v>675</v>
+        <v>919</v>
       </c>
       <c r="D767">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="768" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C768" t="s">
-        <v>676</v>
+        <v>558</v>
       </c>
       <c r="D768">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="769" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C769" t="s">
-        <v>677</v>
+        <v>823</v>
       </c>
       <c r="D769">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="770" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C770" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="D770">
         <v>22</v>
@@ -10406,87 +10807,87 @@
     </row>
     <row r="771" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C771" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="D771">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="772" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C772" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="D772">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="773" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C773" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="D773">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="774" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C774" t="s">
-        <v>682</v>
+        <v>507</v>
       </c>
       <c r="D774">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="775" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C775" t="s">
-        <v>683</v>
+        <v>571</v>
       </c>
       <c r="D775">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="776" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C776" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D776">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="777" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C777" t="s">
-        <v>685</v>
+        <v>806</v>
       </c>
       <c r="D777">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="778" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C778" t="s">
-        <v>686</v>
+        <v>893</v>
       </c>
       <c r="D778">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="779" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C779" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="D779">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="780" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C780" t="s">
-        <v>688</v>
+        <v>572</v>
       </c>
       <c r="D780">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="781" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C781" t="s">
-        <v>689</v>
+        <v>486</v>
       </c>
       <c r="D781">
         <v>23</v>
@@ -10494,87 +10895,87 @@
     </row>
     <row r="782" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C782" t="s">
-        <v>690</v>
+        <v>606</v>
       </c>
       <c r="D782">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="783" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C783" t="s">
-        <v>691</v>
+        <v>759</v>
       </c>
       <c r="D783">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="784" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C784" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="D784">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="785" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C785" t="s">
-        <v>693</v>
+        <v>807</v>
       </c>
       <c r="D785">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="786" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C786" t="s">
-        <v>694</v>
+        <v>920</v>
       </c>
       <c r="D786">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="787" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C787" t="s">
-        <v>695</v>
+        <v>559</v>
       </c>
       <c r="D787">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="788" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C788" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
       <c r="D788">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="789" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C789" t="s">
-        <v>697</v>
+        <v>773</v>
       </c>
       <c r="D789">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="790" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C790" t="s">
-        <v>698</v>
+        <v>824</v>
       </c>
       <c r="D790">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="791" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C791" t="s">
-        <v>699</v>
+        <v>481</v>
       </c>
       <c r="D791">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="792" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C792" t="s">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="D792">
         <v>23</v>
@@ -10582,1295 +10983,1295 @@
     </row>
     <row r="793" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C793" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="D793">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="794" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C794" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D794">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="795" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C795" t="s">
-        <v>703</v>
+        <v>894</v>
       </c>
       <c r="D795">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="796" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C796" t="s">
-        <v>704</v>
+        <v>838</v>
       </c>
       <c r="D796">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="797" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C797" t="s">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="D797">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="798" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C798" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="D798">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="799" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C799" t="s">
-        <v>707</v>
+        <v>793</v>
       </c>
       <c r="D799">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="800" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C800" t="s">
-        <v>708</v>
+        <v>808</v>
       </c>
       <c r="D800">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="801" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C801" t="s">
-        <v>709</v>
+        <v>774</v>
       </c>
       <c r="D801">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="802" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C802" t="s">
-        <v>710</v>
+        <v>487</v>
       </c>
       <c r="D802">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="803" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C803" t="s">
-        <v>711</v>
+        <v>646</v>
       </c>
       <c r="D803">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="804" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C804" t="s">
-        <v>712</v>
+        <v>560</v>
       </c>
       <c r="D804">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="805" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C805" t="s">
-        <v>713</v>
+        <v>921</v>
       </c>
       <c r="D805">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="806" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C806" t="s">
-        <v>714</v>
+        <v>761</v>
       </c>
       <c r="D806">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="807" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C807" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="D807">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="808" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C808" t="s">
-        <v>716</v>
+        <v>794</v>
       </c>
       <c r="D808">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="809" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C809" t="s">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="D809">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="810" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C810" t="s">
-        <v>718</v>
+        <v>776</v>
       </c>
       <c r="D810">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="811" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C811" t="s">
-        <v>719</v>
+        <v>795</v>
       </c>
       <c r="D811">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="812" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C812" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="D812">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="813" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C813" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="D813">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="814" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C814" t="s">
-        <v>722</v>
+        <v>796</v>
       </c>
       <c r="D814">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="815" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C815" t="s">
-        <v>723</v>
+        <v>777</v>
       </c>
       <c r="D815">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="816" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C816" t="s">
-        <v>724</v>
+        <v>763</v>
       </c>
       <c r="D816">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="817" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C817" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="D817">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="818" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C818" t="s">
-        <v>726</v>
+        <v>764</v>
       </c>
       <c r="D818">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="819" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C819" t="s">
-        <v>727</v>
+        <v>778</v>
       </c>
       <c r="D819">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="820" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C820" t="s">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="D820">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="821" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C821" t="s">
-        <v>729</v>
+        <v>694</v>
       </c>
       <c r="D821">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="822" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C822" t="s">
-        <v>730</v>
+        <v>573</v>
       </c>
       <c r="D822">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="823" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C823" t="s">
-        <v>731</v>
+        <v>922</v>
       </c>
       <c r="D823">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="824" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C824" t="s">
-        <v>732</v>
+        <v>779</v>
       </c>
       <c r="D824">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="825" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C825" t="s">
-        <v>733</v>
+        <v>906</v>
       </c>
       <c r="D825">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="826" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C826" t="s">
-        <v>734</v>
+        <v>895</v>
       </c>
       <c r="D826">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="827" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C827" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="D827">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="828" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C828" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D828">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="829" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C829" t="s">
-        <v>737</v>
+        <v>488</v>
       </c>
       <c r="D829">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="830" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C830" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="D830">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="831" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C831" t="s">
-        <v>739</v>
+        <v>544</v>
       </c>
       <c r="D831">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="832" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C832" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="D832">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="833" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C833" t="s">
-        <v>741</v>
+        <v>627</v>
       </c>
       <c r="D833">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="834" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C834" t="s">
-        <v>742</v>
+        <v>531</v>
       </c>
       <c r="D834">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="835" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C835" t="s">
-        <v>743</v>
+        <v>561</v>
       </c>
       <c r="D835">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="836" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C836" t="s">
-        <v>744</v>
+        <v>508</v>
       </c>
       <c r="D836">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="837" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C837" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="D837">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="838" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C838" t="s">
-        <v>746</v>
+        <v>856</v>
       </c>
       <c r="D838">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="839" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C839" t="s">
-        <v>747</v>
+        <v>647</v>
       </c>
       <c r="D839">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="840" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C840" t="s">
-        <v>748</v>
+        <v>579</v>
       </c>
       <c r="D840">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="841" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C841" t="s">
-        <v>749</v>
+        <v>907</v>
       </c>
       <c r="D841">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="842" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C842" t="s">
-        <v>750</v>
+        <v>809</v>
       </c>
       <c r="D842">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="843" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C843" t="s">
-        <v>751</v>
+        <v>797</v>
       </c>
       <c r="D843">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="844" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C844" t="s">
-        <v>752</v>
+        <v>668</v>
       </c>
       <c r="D844">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="845" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C845" t="s">
-        <v>753</v>
+        <v>607</v>
       </c>
       <c r="D845">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="846" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C846" t="s">
-        <v>754</v>
+        <v>499</v>
       </c>
       <c r="D846">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="847" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C847" t="s">
-        <v>755</v>
+        <v>839</v>
       </c>
       <c r="D847">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="848" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C848" t="s">
-        <v>756</v>
+        <v>681</v>
       </c>
       <c r="D848">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="849" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C849" t="s">
-        <v>757</v>
+        <v>712</v>
       </c>
       <c r="D849">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="850" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C850" t="s">
-        <v>758</v>
+        <v>810</v>
       </c>
       <c r="D850">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="851" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C851" t="s">
-        <v>759</v>
+        <v>713</v>
       </c>
       <c r="D851">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="852" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C852" t="s">
-        <v>760</v>
+        <v>648</v>
       </c>
       <c r="D852">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="853" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C853" t="s">
-        <v>761</v>
+        <v>682</v>
       </c>
       <c r="D853">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="854" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C854" t="s">
-        <v>762</v>
+        <v>908</v>
       </c>
       <c r="D854">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="855" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C855" t="s">
-        <v>763</v>
+        <v>509</v>
       </c>
       <c r="D855">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="856" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C856" t="s">
-        <v>764</v>
+        <v>840</v>
       </c>
       <c r="D856">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="857" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C857" t="s">
-        <v>765</v>
+        <v>884</v>
       </c>
       <c r="D857">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="858" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C858" t="s">
-        <v>766</v>
+        <v>608</v>
       </c>
       <c r="D858">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="859" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C859" t="s">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="D859">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="860" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C860" t="s">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="D860">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="861" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C861" t="s">
-        <v>769</v>
+        <v>562</v>
       </c>
       <c r="D861">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="862" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C862" t="s">
-        <v>770</v>
+        <v>580</v>
       </c>
       <c r="D862">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="863" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C863" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="D863">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="864" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C864" t="s">
-        <v>772</v>
+        <v>811</v>
       </c>
       <c r="D864">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="865" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C865" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="D865">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="866" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C866" t="s">
-        <v>774</v>
+        <v>609</v>
       </c>
       <c r="D866">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="867" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C867" t="s">
-        <v>775</v>
+        <v>649</v>
       </c>
       <c r="D867">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="868" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C868" t="s">
-        <v>776</v>
+        <v>510</v>
       </c>
       <c r="D868">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="869" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C869" t="s">
-        <v>777</v>
+        <v>909</v>
       </c>
       <c r="D869">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="870" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C870" t="s">
-        <v>778</v>
+        <v>670</v>
       </c>
       <c r="D870">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="871" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C871" t="s">
-        <v>779</v>
+        <v>581</v>
       </c>
       <c r="D871">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="872" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C872" t="s">
-        <v>780</v>
+        <v>841</v>
       </c>
       <c r="D872">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="873" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C873" t="s">
-        <v>781</v>
+        <v>563</v>
       </c>
       <c r="D873">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="874" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C874" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
       <c r="D874">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="875" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C875" t="s">
-        <v>783</v>
+        <v>671</v>
       </c>
       <c r="D875">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="876" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C876" t="s">
-        <v>784</v>
+        <v>564</v>
       </c>
       <c r="D876">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="877" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C877" t="s">
-        <v>785</v>
+        <v>610</v>
       </c>
       <c r="D877">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="878" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C878" t="s">
-        <v>786</v>
+        <v>582</v>
       </c>
       <c r="D878">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="879" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C879" t="s">
-        <v>787</v>
+        <v>650</v>
       </c>
       <c r="D879">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="880" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C880" t="s">
-        <v>788</v>
+        <v>910</v>
       </c>
       <c r="D880">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="881" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C881" t="s">
-        <v>789</v>
+        <v>842</v>
       </c>
       <c r="D881">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="882" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C882" t="s">
-        <v>790</v>
+        <v>672</v>
       </c>
       <c r="D882">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="883" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C883" t="s">
-        <v>791</v>
+        <v>611</v>
       </c>
       <c r="D883">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="884" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C884" t="s">
-        <v>792</v>
+        <v>843</v>
       </c>
       <c r="D884">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="885" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C885" t="s">
-        <v>793</v>
+        <v>583</v>
       </c>
       <c r="D885">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="886" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C886" t="s">
-        <v>794</v>
+        <v>584</v>
       </c>
       <c r="D886">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="887" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C887" t="s">
-        <v>795</v>
+        <v>844</v>
       </c>
       <c r="D887">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="888" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C888" t="s">
-        <v>796</v>
+        <v>651</v>
       </c>
       <c r="D888">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="889" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C889" t="s">
-        <v>797</v>
+        <v>612</v>
       </c>
       <c r="D889">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="890" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C890" t="s">
-        <v>798</v>
+        <v>500</v>
       </c>
       <c r="D890">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="891" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C891" t="s">
-        <v>799</v>
+        <v>532</v>
       </c>
       <c r="D891">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="892" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C892" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="D892">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="893" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C893" t="s">
-        <v>801</v>
+        <v>628</v>
       </c>
       <c r="D893">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="894" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C894" t="s">
-        <v>802</v>
+        <v>585</v>
       </c>
       <c r="D894">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="895" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C895" t="s">
-        <v>803</v>
+        <v>489</v>
       </c>
       <c r="D895">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="896" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C896" t="s">
-        <v>804</v>
+        <v>731</v>
       </c>
       <c r="D896">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="897" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C897" t="s">
-        <v>805</v>
+        <v>714</v>
       </c>
       <c r="D897">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="898" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C898" t="s">
-        <v>806</v>
+        <v>511</v>
       </c>
       <c r="D898">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="899" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C899" t="s">
-        <v>807</v>
+        <v>613</v>
       </c>
       <c r="D899">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="900" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C900" t="s">
-        <v>808</v>
+        <v>885</v>
       </c>
       <c r="D900">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="901" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C901" t="s">
-        <v>809</v>
+        <v>652</v>
       </c>
       <c r="D901">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="902" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C902" t="s">
-        <v>810</v>
+        <v>545</v>
       </c>
       <c r="D902">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="903" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C903" t="s">
-        <v>811</v>
+        <v>858</v>
       </c>
       <c r="D903">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="904" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C904" t="s">
-        <v>812</v>
+        <v>845</v>
       </c>
       <c r="D904">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="905" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C905" t="s">
-        <v>813</v>
+        <v>614</v>
       </c>
       <c r="D905">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="906" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C906" t="s">
-        <v>814</v>
+        <v>715</v>
       </c>
       <c r="D906">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="907" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C907" t="s">
-        <v>815</v>
+        <v>512</v>
       </c>
       <c r="D907">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="908" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C908" t="s">
-        <v>816</v>
+        <v>546</v>
       </c>
       <c r="D908">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="909" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C909" t="s">
-        <v>817</v>
+        <v>886</v>
       </c>
       <c r="D909">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="910" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C910" t="s">
-        <v>818</v>
+        <v>490</v>
       </c>
       <c r="D910">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="911" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C911" t="s">
-        <v>819</v>
+        <v>586</v>
       </c>
       <c r="D911">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="912" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C912" t="s">
-        <v>820</v>
+        <v>653</v>
       </c>
       <c r="D912">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="913" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C913" t="s">
-        <v>821</v>
+        <v>859</v>
       </c>
       <c r="D913">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="914" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C914" t="s">
-        <v>822</v>
+        <v>732</v>
       </c>
       <c r="D914">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="915" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C915" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="D915">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="916" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C916" t="s">
-        <v>824</v>
+        <v>654</v>
       </c>
       <c r="D916">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="917" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C917" t="s">
-        <v>825</v>
+        <v>491</v>
       </c>
       <c r="D917">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="918" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C918" t="s">
-        <v>826</v>
+        <v>887</v>
       </c>
       <c r="D918">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="919" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C919" t="s">
-        <v>827</v>
+        <v>733</v>
       </c>
       <c r="D919">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="920" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C920" t="s">
-        <v>828</v>
+        <v>513</v>
       </c>
       <c r="D920">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="921" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C921" t="s">
-        <v>829</v>
+        <v>615</v>
       </c>
       <c r="D921">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="922" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C922" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="D922">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="923" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C923" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="D923">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="924" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C924" t="s">
-        <v>832</v>
+        <v>587</v>
       </c>
       <c r="D924">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="925" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C925" t="s">
-        <v>833</v>
+        <v>734</v>
       </c>
       <c r="D925">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="926" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C926" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="D926">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="927" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C927" t="s">
-        <v>835</v>
+        <v>888</v>
       </c>
       <c r="D927">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="928" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C928" t="s">
-        <v>836</v>
+        <v>514</v>
       </c>
       <c r="D928">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="929" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C929" t="s">
-        <v>837</v>
+        <v>655</v>
       </c>
       <c r="D929">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="930" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C930" t="s">
-        <v>838</v>
+        <v>492</v>
       </c>
       <c r="D930">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="931" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C931" t="s">
-        <v>839</v>
+        <v>515</v>
       </c>
       <c r="D931">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="932" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C932" t="s">
-        <v>840</v>
+        <v>493</v>
       </c>
       <c r="D932">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="933" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C933" t="s">
-        <v>841</v>
+        <v>735</v>
       </c>
       <c r="D933">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="934" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C934" t="s">
-        <v>842</v>
+        <v>494</v>
       </c>
       <c r="D934">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="935" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C935" t="s">
-        <v>843</v>
+        <v>736</v>
       </c>
       <c r="D935">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="936" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C936" t="s">
-        <v>844</v>
+        <v>516</v>
       </c>
       <c r="D936">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="937" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C937" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D937">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="938" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C938" t="s">
-        <v>846</v>
+        <v>517</v>
       </c>
       <c r="D938">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="939" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C939" t="s">
-        <v>847</v>
+        <v>495</v>
       </c>
       <c r="D939">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="940" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C940" t="s">
-        <v>848</v>
+        <v>737</v>
       </c>
       <c r="D940">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="941" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C941" t="s">
-        <v>849</v>
+        <v>889</v>
       </c>
       <c r="D941">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="942" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C942" t="s">
-        <v>850</v>
+        <v>533</v>
       </c>
       <c r="D942">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="943" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C943" t="s">
-        <v>851</v>
+        <v>716</v>
       </c>
       <c r="D943">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="944" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C944" t="s">
-        <v>852</v>
+        <v>656</v>
       </c>
       <c r="D944">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="945" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C945" t="s">
-        <v>853</v>
+        <v>629</v>
       </c>
       <c r="D945">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="946" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C946" t="s">
-        <v>854</v>
+        <v>547</v>
       </c>
       <c r="D946">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="947" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C947" t="s">
-        <v>855</v>
+        <v>518</v>
       </c>
       <c r="D947">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="948" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C948" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="D948">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="949" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C949" t="s">
-        <v>857</v>
+        <v>616</v>
       </c>
       <c r="D949">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="950" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C950" t="s">
-        <v>858</v>
+        <v>588</v>
       </c>
       <c r="D950">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="951" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C951" t="s">
-        <v>859</v>
+        <v>519</v>
       </c>
       <c r="D951">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="952" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C952" t="s">
-        <v>860</v>
+        <v>657</v>
       </c>
       <c r="D952">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="953" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C953" t="s">
-        <v>861</v>
+        <v>717</v>
       </c>
       <c r="D953">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="954" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C954" t="s">
-        <v>862</v>
+        <v>630</v>
       </c>
       <c r="D954">
         <v>52</v>
@@ -11878,506 +12279,506 @@
     </row>
     <row r="955" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C955" t="s">
-        <v>863</v>
+        <v>589</v>
       </c>
       <c r="D955">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="956" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C956" t="s">
-        <v>864</v>
+        <v>617</v>
       </c>
       <c r="D956">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="957" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C957" t="s">
-        <v>865</v>
+        <v>548</v>
       </c>
       <c r="D957">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="958" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C958" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D958">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="959" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C959" t="s">
-        <v>867</v>
+        <v>618</v>
       </c>
       <c r="D959">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="960" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C960" t="s">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="D960">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="961" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C961" t="s">
-        <v>869</v>
+        <v>631</v>
       </c>
       <c r="D961">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="962" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C962" t="s">
-        <v>870</v>
+        <v>590</v>
       </c>
       <c r="D962">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="963" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C963" t="s">
-        <v>871</v>
+        <v>658</v>
       </c>
       <c r="D963">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="964" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C964" t="s">
-        <v>872</v>
+        <v>549</v>
       </c>
       <c r="D964">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="965" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C965" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="D965">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="966" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C966" t="s">
-        <v>874</v>
+        <v>520</v>
       </c>
       <c r="D966">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="967" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C967" t="s">
-        <v>875</v>
+        <v>619</v>
       </c>
       <c r="D967">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="968" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C968" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="D968">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="969" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C969" t="s">
-        <v>877</v>
+        <v>632</v>
       </c>
       <c r="D969">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="970" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C970" t="s">
-        <v>878</v>
+        <v>591</v>
       </c>
       <c r="D970">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="971" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C971" t="s">
-        <v>879</v>
+        <v>659</v>
       </c>
       <c r="D971">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="972" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C972" t="s">
-        <v>880</v>
+        <v>550</v>
       </c>
       <c r="D972">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="973" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C973" t="s">
-        <v>881</v>
+        <v>592</v>
       </c>
       <c r="D973">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="974" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C974" t="s">
-        <v>882</v>
+        <v>620</v>
       </c>
       <c r="D974">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="975" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C975" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="D975">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="976" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C976" t="s">
-        <v>884</v>
+        <v>551</v>
       </c>
       <c r="D976">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="977" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C977" t="s">
-        <v>885</v>
+        <v>633</v>
       </c>
       <c r="D977">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="978" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C978" t="s">
-        <v>886</v>
+        <v>660</v>
       </c>
       <c r="D978">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="979" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C979" t="s">
-        <v>887</v>
+        <v>593</v>
       </c>
       <c r="D979">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="980" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C980" t="s">
-        <v>888</v>
+        <v>552</v>
       </c>
       <c r="D980">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="981" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C981" t="s">
-        <v>889</v>
+        <v>634</v>
       </c>
       <c r="D981">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="982" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C982" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="D982">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="983" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C983" t="s">
-        <v>891</v>
+        <v>635</v>
       </c>
       <c r="D983">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="984" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C984" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="D984">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="985" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C985" t="s">
-        <v>893</v>
+        <v>636</v>
       </c>
       <c r="D985">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="986" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C986" t="s">
-        <v>894</v>
+        <v>594</v>
       </c>
       <c r="D986">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="987" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C987" t="s">
-        <v>895</v>
+        <v>661</v>
       </c>
       <c r="D987">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="988" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C988" t="s">
-        <v>896</v>
+        <v>637</v>
       </c>
       <c r="D988">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="989" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C989" t="s">
-        <v>897</v>
+        <v>553</v>
       </c>
       <c r="D989">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="990" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C990" t="s">
-        <v>898</v>
+        <v>868</v>
       </c>
       <c r="D990">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="991" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C991" t="s">
-        <v>899</v>
+        <v>869</v>
       </c>
       <c r="D991">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="992" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C992" t="s">
-        <v>900</v>
+        <v>719</v>
       </c>
       <c r="D992">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="993" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C993" t="s">
-        <v>901</v>
+        <v>521</v>
       </c>
       <c r="D993">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="994" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C994" t="s">
-        <v>902</v>
+        <v>534</v>
       </c>
       <c r="D994">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="995" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C995" t="s">
-        <v>903</v>
+        <v>720</v>
       </c>
       <c r="D995">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="996" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C996" t="s">
-        <v>904</v>
+        <v>522</v>
       </c>
       <c r="D996">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="997" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C997" t="s">
-        <v>905</v>
+        <v>535</v>
       </c>
       <c r="D997">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="998" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C998" t="s">
-        <v>906</v>
+        <v>536</v>
       </c>
       <c r="D998">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="999" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C999" t="s">
-        <v>907</v>
+        <v>523</v>
       </c>
       <c r="D999">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1000" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1000" t="s">
-        <v>908</v>
+        <v>721</v>
       </c>
       <c r="D1000">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1001" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1001" t="s">
-        <v>909</v>
+        <v>722</v>
       </c>
       <c r="D1001">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1002" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1002" t="s">
-        <v>910</v>
+        <v>537</v>
       </c>
       <c r="D1002">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1003" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1003" t="s">
-        <v>911</v>
+        <v>524</v>
       </c>
       <c r="D1003">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1004" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1004" t="s">
-        <v>912</v>
+        <v>525</v>
       </c>
       <c r="D1004">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1005" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1005" t="s">
-        <v>913</v>
+        <v>538</v>
       </c>
       <c r="D1005">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1006" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1006" t="s">
-        <v>914</v>
+        <v>723</v>
       </c>
       <c r="D1006">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1007" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1007" t="s">
-        <v>915</v>
+        <v>539</v>
       </c>
       <c r="D1007">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1008" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C1008" t="s">
-        <v>916</v>
+        <v>526</v>
       </c>
       <c r="D1008">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1009" t="s">
-        <v>917</v>
+        <v>540</v>
       </c>
       <c r="D1009">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1010" t="s">
-        <v>918</v>
+        <v>541</v>
       </c>
       <c r="D1010">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1011" t="s">
-        <v>919</v>
+        <v>724</v>
       </c>
       <c r="D1011">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1012" t="s">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="D1012">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1013" t="s">
-        <v>921</v>
+        <v>871</v>
       </c>
       <c r="D1013">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1014" t="s">
-        <v>922</v>
+        <v>872</v>
       </c>
       <c r="D1014">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1015" t="s">
-        <v>923</v>
+        <v>873</v>
       </c>
       <c r="D1015">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1016" t="s">
-        <v>924</v>
+        <v>874</v>
       </c>
       <c r="D1016">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1017" t="s">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="D1017">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.3">
@@ -13425,6 +13826,15 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C562:D1017">
+    <sortCondition ref="D562:D1017"/>
+    <sortCondition ref="C562:C1017"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="E123:E131"/>
+    <mergeCell ref="E132:E136"/>
+    <mergeCell ref="E137:E143"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lfs_april_2016_metadata(dictionary).xlsx
+++ b/lfs_april_2016_metadata(dictionary).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cynicap\Documents\School\STINTSY\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDFD93C-B7BA-4ADC-8FB3-22D76B8B795B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4F736C-1907-4ECC-B680-D088B09D070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3975,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA194C70-7A58-425D-9E3E-461AE0A5F7F8}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="D21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4682,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H495" sqref="H495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13836,5 +13836,6 @@
     <mergeCell ref="E137:E143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>